--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="442">
   <si>
     <t>Property</t>
   </si>
@@ -480,6 +480,9 @@
 </t>
   </si>
   <si>
+    <t>DICOM画像検査全体を一意に識別するためのID。【詳細参照】</t>
+  </si>
+  <si>
     <t>DICOM画像検査全体を一意に識別するためのID。</t>
   </si>
   <si>
@@ -542,6 +545,9 @@
 </t>
   </si>
   <si>
+    <t>DICOM画像検査で使用された撮影装置（モダリティ）。【詳細参照】</t>
+  </si>
+  <si>
     <t>DICOM画像検査で使用された撮影装置（モダリティ）。</t>
   </si>
   <si>
@@ -573,6 +579,9 @@
 </t>
   </si>
   <si>
+    <t>DICOM画像検査の対象患者に関する情報。【詳細参照】</t>
+  </si>
+  <si>
     <t>DICOM画像検査の対象患者に関する情報。</t>
   </si>
   <si>
@@ -598,6 +607,9 @@
 </t>
   </si>
   <si>
+    <t>このDICOM画像検査を実施するきっかけとなった情報。【詳細参照】</t>
+  </si>
+  <si>
     <t>このDICOM画像検査を実施するきっかけとなった情報。</t>
   </si>
   <si>
@@ -649,6 +661,9 @@
 </t>
   </si>
   <si>
+    <t>他のシステムから依頼されたオーダ情報。【詳細参照】</t>
+  </si>
+  <si>
     <t>他のシステムから依頼されたオーダ情報。</t>
   </si>
   <si>
@@ -681,6 +696,9 @@
 </t>
   </si>
   <si>
+    <t>依頼医師。【詳細参照】</t>
+  </si>
+  <si>
     <t>依頼医師。</t>
   </si>
   <si>
@@ -700,6 +718,9 @@
 </t>
   </si>
   <si>
+    <t>画像を診断した医師。【詳細参照】</t>
+  </si>
+  <si>
     <t>画像を診断した医師。</t>
   </si>
   <si>
@@ -722,6 +743,9 @@
 </t>
   </si>
   <si>
+    <t>このDICOM画像検査リソースが存在する位置。【詳細参照】</t>
+  </si>
+  <si>
     <t>このDICOM画像検査リソースが存在する位置。</t>
   </si>
   <si>
@@ -777,6 +801,9 @@
 </t>
   </si>
   <si>
+    <t>実施された処置に関する情報。【詳細参照】</t>
+  </si>
+  <si>
     <t>実施された処置に関する情報。</t>
   </si>
   <si>
@@ -803,6 +830,9 @@
 </t>
   </si>
   <si>
+    <t>実施された処置を表すコード。【詳細参照】</t>
+  </si>
+  <si>
     <t>実施された処置を表すコード。</t>
   </si>
   <si>
@@ -822,6 +852,9 @@
 </t>
   </si>
   <si>
+    <t>DICOM画像検査が実施された場所。【詳細参照】</t>
+  </si>
+  <si>
     <t>DICOM画像検査が実施された場所。</t>
   </si>
   <si>
@@ -847,6 +880,9 @@
   </si>
   <si>
     <t>ImagingStudy.reasonCode</t>
+  </si>
+  <si>
+    <t>DICOM画像検査が依頼された理由を表す1つ以上のコード。【詳細参照】</t>
   </si>
   <si>
     <t>DICOM画像検査が依頼された理由を表す1つ以上のコード。</t>
@@ -880,6 +916,9 @@
 </t>
   </si>
   <si>
+    <t>DICOM画像検査の実施理由に関する情報。【詳細参照】</t>
+  </si>
+  <si>
     <t>DICOM画像検査の実施理由に関する情報。</t>
   </si>
   <si>
@@ -922,6 +961,9 @@
 </t>
   </si>
   <si>
+    <t>DICOM画像検査に関する記述。【詳細参照】</t>
+  </si>
+  <si>
     <t>DICOM画像検査に関する記述。</t>
   </si>
   <si>
@@ -995,6 +1037,9 @@
 </t>
   </si>
   <si>
+    <t>シリーズを一意に識別するためのUID。【詳細参照】</t>
+  </si>
+  <si>
     <t>シリーズを一意に識別するためのUID。</t>
   </si>
   <si>
@@ -1039,6 +1084,9 @@
 </t>
   </si>
   <si>
+    <t>このシリーズが取得された撮影装置（モダリティ）。【詳細参照】</t>
+  </si>
+  <si>
     <t>このシリーズが取得された撮影装置（モダリティ）。</t>
   </si>
   <si>
@@ -1096,6 +1144,9 @@
 </t>
   </si>
   <si>
+    <t>このシリーズの対象となる解剖学的部位。【詳細参照】</t>
+  </si>
+  <si>
     <t>このシリーズの対象となる解剖学的部位。</t>
   </si>
   <si>
@@ -1112,6 +1163,9 @@
   </si>
   <si>
     <t>ImagingStudy.series.laterality</t>
+  </si>
+  <si>
+    <t>解剖学的部位の左右。【詳細参照】</t>
   </si>
   <si>
     <t>解剖学的部位の左右。</t>
@@ -1133,6 +1187,9 @@
 </t>
   </si>
   <si>
+    <t>このシリーズの検体に関する情報。【詳細参照】</t>
+  </si>
+  <si>
     <t>このシリーズの検体に関する情報。</t>
   </si>
   <si>
@@ -1143,6 +1200,9 @@
   </si>
   <si>
     <t>ImagingStudy.series.started</t>
+  </si>
+  <si>
+    <t>このシリーズの開始日時。【詳細参照】</t>
   </si>
   <si>
     <t>このシリーズの開始日時。</t>
@@ -1161,6 +1221,9 @@
 OperatorName</t>
   </si>
   <si>
+    <t>このシリーズの実施医。【詳細参照】</t>
+  </si>
+  <si>
     <t>このシリーズの実施医。</t>
   </si>
   <si>
@@ -1183,6 +1246,9 @@
   </si>
   <si>
     <t>ImagingStudy.series.performer.function</t>
+  </si>
+  <si>
+    <t>このシリーズの実施医の役割。【詳細参照】</t>
   </si>
   <si>
     <t>このシリーズの実施医の役割。</t>
@@ -1204,6 +1270,9 @@
 </t>
   </si>
   <si>
+    <t>このシリーズの撮影者、もしくは組織。【詳細参照】</t>
+  </si>
+  <si>
     <t>このシリーズの撮影者、もしくは組織。</t>
   </si>
   <si>
@@ -1241,6 +1310,9 @@
 </t>
   </si>
   <si>
+    <t>インスタンス（画像）のユニークID。【詳細参照】</t>
+  </si>
+  <si>
     <t>インスタンス（画像）のユニークID。</t>
   </si>
   <si>
@@ -1261,6 +1333,9 @@
   <si>
     <t xml:space="preserve">SOPClassUID
 </t>
+  </si>
+  <si>
+    <t>SOPクラスUID。【詳細参照】</t>
   </si>
   <si>
     <t>SOPクラスUID。</t>
@@ -1290,6 +1365,9 @@
 </t>
   </si>
   <si>
+    <t>SOP Instance UIDとは別に、ユーザー（または装置）が自由に決められるインスタンス（画像）ごとの番号。【詳細参照】</t>
+  </si>
+  <si>
     <t>SOP Instance UIDとは別に、ユーザー（または装置）が自由に決められるインスタンス（画像）ごとの番号。</t>
   </si>
   <si>
@@ -1303,6 +1381,9 @@
   </si>
   <si>
     <t>ImagingStudy.series.instance.title</t>
+  </si>
+  <si>
+    <t>画像に関する説明。【詳細参照】</t>
   </si>
   <si>
     <t>画像に関する説明。</t>
@@ -2897,13 +2978,13 @@
         <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>79</v>
@@ -2967,16 +3048,16 @@
         <v>101</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>79</v>
@@ -2984,10 +3065,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3013,13 +3094,13 @@
         <v>109</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3045,13 +3126,13 @@
         <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>79</v>
@@ -3069,7 +3150,7 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>89</v>
@@ -3084,31 +3165,31 @@
         <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3127,16 +3208,16 @@
         <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3162,13 +3243,13 @@
         <v>79</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>79</v>
@@ -3186,7 +3267,7 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3204,13 +3285,13 @@
         <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>79</v>
@@ -3218,10 +3299,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3244,16 +3325,16 @@
         <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3303,7 +3384,7 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>89</v>
@@ -3318,16 +3399,16 @@
         <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>79</v>
@@ -3335,10 +3416,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3361,16 +3442,16 @@
         <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3420,7 +3501,7 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3435,16 +3516,16 @@
         <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>79</v>
@@ -3452,14 +3533,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3478,13 +3559,13 @@
         <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3499,43 +3580,43 @@
         <v>79</v>
       </c>
       <c r="T16" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -3550,16 +3631,16 @@
         <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>79</v>
@@ -3567,10 +3648,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3593,19 +3674,19 @@
         <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>79</v>
@@ -3654,7 +3735,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -3669,16 +3750,16 @@
         <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>79</v>
@@ -3686,14 +3767,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3712,16 +3793,16 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3771,7 +3852,7 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -3789,13 +3870,13 @@
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>79</v>
@@ -3803,14 +3884,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3829,16 +3910,16 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3888,7 +3969,7 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -3906,13 +3987,13 @@
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>79</v>
@@ -3920,10 +4001,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3946,19 +4027,19 @@
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -4007,7 +4088,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4025,7 +4106,7 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
@@ -4039,14 +4120,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4065,13 +4146,13 @@
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4122,7 +4203,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4140,10 +4221,10 @@
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4154,14 +4235,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4180,13 +4261,13 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4237,7 +4318,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4255,10 +4336,10 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4269,10 +4350,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4295,16 +4376,16 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4354,7 +4435,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4369,13 +4450,13 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -4386,14 +4467,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4412,16 +4493,16 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4447,11 +4528,11 @@
         <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>79</v>
@@ -4469,7 +4550,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4484,13 +4565,13 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -4501,10 +4582,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4527,19 +4608,19 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -4588,7 +4669,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4603,27 +4684,27 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>264</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4646,16 +4727,16 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4681,11 +4762,11 @@
         <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>79</v>
@@ -4703,7 +4784,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4718,16 +4799,16 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
@@ -4735,10 +4816,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4761,16 +4842,16 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4820,7 +4901,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -4835,27 +4916,27 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>280</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4878,13 +4959,13 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4935,7 +5016,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -4950,10 +5031,10 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -4967,14 +5048,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4993,16 +5074,16 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5052,7 +5133,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5070,10 +5151,10 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5084,10 +5165,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5110,13 +5191,13 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5167,7 +5248,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5185,7 +5266,7 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5199,10 +5280,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5225,13 +5306,13 @@
         <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5282,7 +5363,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5300,7 +5381,7 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5314,10 +5395,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5346,7 +5427,7 @@
         <v>136</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="N32" t="s" s="2">
         <v>138</v>
@@ -5399,7 +5480,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5417,7 +5498,7 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5431,14 +5512,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5460,10 +5541,10 @@
         <v>135</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>138</v>
@@ -5518,7 +5599,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5550,14 +5631,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5579,16 +5660,16 @@
         <v>91</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -5601,7 +5682,7 @@
         <v>79</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>79</v>
@@ -5637,7 +5718,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>89</v>
@@ -5655,10 +5736,10 @@
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -5669,14 +5750,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5695,13 +5776,13 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5716,7 +5797,7 @@
         <v>79</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>79</v>
@@ -5752,7 +5833,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -5770,10 +5851,10 @@
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -5784,14 +5865,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5810,16 +5891,16 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5845,13 +5926,13 @@
         <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>79</v>
@@ -5869,7 +5950,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>89</v>
@@ -5887,10 +5968,10 @@
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -5901,14 +5982,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5927,13 +6008,13 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5948,7 +6029,7 @@
         <v>79</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>79</v>
@@ -5984,7 +6065,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6002,10 +6083,10 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6016,14 +6097,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6042,13 +6123,13 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6099,7 +6180,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6117,10 +6198,10 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6131,10 +6212,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6157,19 +6238,19 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -6218,7 +6299,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6236,7 +6317,7 @@
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6250,14 +6331,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6276,16 +6357,16 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6311,13 +6392,13 @@
         <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>79</v>
@@ -6335,7 +6416,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6353,10 +6434,10 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6367,10 +6448,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6393,16 +6474,16 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6428,13 +6509,13 @@
         <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>79</v>
@@ -6452,7 +6533,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6470,10 +6551,10 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -6484,10 +6565,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6510,16 +6591,16 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6569,7 +6650,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6587,10 +6668,10 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -6601,10 +6682,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6627,16 +6708,16 @@
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6686,7 +6767,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6704,10 +6785,10 @@
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -6718,14 +6799,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6744,19 +6825,19 @@
         <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>79</v>
@@ -6805,7 +6886,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -6820,13 +6901,13 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -6837,10 +6918,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6863,13 +6944,13 @@
         <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6920,7 +7001,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -6938,7 +7019,7 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -6952,10 +7033,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>370</v>
+        <v>391</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>370</v>
+        <v>391</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6984,7 +7065,7 @@
         <v>136</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>138</v>
@@ -7037,7 +7118,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7055,7 +7136,7 @@
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7069,14 +7150,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7098,10 +7179,10 @@
         <v>135</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>138</v>
@@ -7156,7 +7237,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7188,10 +7269,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7214,19 +7295,19 @@
         <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>79</v>
@@ -7251,13 +7332,13 @@
         <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>79</v>
@@ -7275,7 +7356,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7293,7 +7374,7 @@
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7307,10 +7388,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7333,16 +7414,16 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7392,7 +7473,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>89</v>
@@ -7410,24 +7491,24 @@
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>382</v>
+        <v>405</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7450,13 +7531,13 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7507,7 +7588,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7525,7 +7606,7 @@
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -7539,10 +7620,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7565,13 +7646,13 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7622,7 +7703,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7640,7 +7721,7 @@
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -7654,10 +7735,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7686,7 +7767,7 @@
         <v>136</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>138</v>
@@ -7739,7 +7820,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -7757,7 +7838,7 @@
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -7771,14 +7852,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7800,10 +7881,10 @@
         <v>135</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>138</v>
@@ -7858,7 +7939,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -7890,14 +7971,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>390</v>
+        <v>413</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7919,16 +8000,16 @@
         <v>91</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -7941,7 +8022,7 @@
         <v>79</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>79</v>
@@ -7977,7 +8058,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>89</v>
@@ -7995,10 +8076,10 @@
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8009,14 +8090,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8035,16 +8116,16 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8070,13 +8151,13 @@
         <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>79</v>
@@ -8094,7 +8175,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>89</v>
@@ -8112,10 +8193,10 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8126,14 +8207,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8152,16 +8233,16 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8211,7 +8292,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8229,10 +8310,10 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8243,10 +8324,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8269,16 +8350,16 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>411</v>
+        <v>438</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>412</v>
+        <v>439</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8328,7 +8409,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8346,10 +8427,10 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>414</v>
+        <v>441</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="453">
   <si>
     <t>Property</t>
   </si>
@@ -268,7 +268,7 @@
 </t>
   </si>
   <si>
-    <t>内視鏡を使用したDICOM画像検査に関する情報。</t>
+    <t>内視鏡を使用したDICOM画像検査に関する情報</t>
   </si>
   <si>
     <t>DICOM画像研究で生成されたコンテンツの表現。 研究には、共通の文脈で収集または生成されたサービスオブジェクトペアインスタンス（SOPインスタンス - 画像またはその他のデータ）のセットで構成される一連のシリーズが含まれます。 シリーズは1つのモダリティのみ（X線、CT、MR、超音波など）、研究には複数の異なるモダリティのシリーズが含まれる場合があります。</t>
@@ -480,7 +480,7 @@
 </t>
   </si>
   <si>
-    <t>DICOM画像検査全体を一意に識別するためのID。【詳細参照】</t>
+    <t>DICOM画像検査全体を一意に識別するためのID【詳細参照】</t>
   </si>
   <si>
     <t>DICOM画像検査全体を一意に識別するためのID。</t>
@@ -505,6 +505,9 @@
   </si>
   <si>
     <t>ImagingStudy.status</t>
+  </si>
+  <si>
+    <t>DICOM画像検査のステータス</t>
   </si>
   <si>
     <t>DICOM画像検査のステータス。</t>
@@ -545,7 +548,7 @@
 </t>
   </si>
   <si>
-    <t>DICOM画像検査で使用された撮影装置（モダリティ）。【詳細参照】</t>
+    <t>DICOM画像検査で使用された撮影装置（モダリティ）【詳細参照】</t>
   </si>
   <si>
     <t>DICOM画像検査で使用された撮影装置（モダリティ）。</t>
@@ -579,7 +582,7 @@
 </t>
   </si>
   <si>
-    <t>DICOM画像検査の対象患者に関する情報。【詳細参照】</t>
+    <t>DICOM画像検査の対象患者に関する情報【詳細参照】</t>
   </si>
   <si>
     <t>DICOM画像検査の対象患者に関する情報。</t>
@@ -607,7 +610,7 @@
 </t>
   </si>
   <si>
-    <t>このDICOM画像検査を実施するきっかけとなった情報。【詳細参照】</t>
+    <t>このDICOM画像検査を実施するきっかけとなった情報【詳細参照】</t>
   </si>
   <si>
     <t>このDICOM画像検査を実施するきっかけとなった情報。</t>
@@ -636,6 +639,9 @@
 </t>
   </si>
   <si>
+    <t>検査開始日時、もしくは撮影装置に患者情報が届いた/入力された日時</t>
+  </si>
+  <si>
     <t>検査開始日時、もしくは撮影装置に患者情報が届いた/入力された日時。</t>
   </si>
   <si>
@@ -661,7 +667,7 @@
 </t>
   </si>
   <si>
-    <t>他のシステムから依頼されたオーダ情報。【詳細参照】</t>
+    <t>他のシステムから依頼されたオーダ情報【詳細参照】</t>
   </si>
   <si>
     <t>他のシステムから依頼されたオーダ情報。</t>
@@ -696,7 +702,7 @@
 </t>
   </si>
   <si>
-    <t>依頼医師。【詳細参照】</t>
+    <t>依頼医師【詳細参照】</t>
   </si>
   <si>
     <t>依頼医師。</t>
@@ -718,7 +724,7 @@
 </t>
   </si>
   <si>
-    <t>画像を診断した医師。【詳細参照】</t>
+    <t>画像を診断した医師【詳細参照】</t>
   </si>
   <si>
     <t>画像を診断した医師。</t>
@@ -743,7 +749,7 @@
 </t>
   </si>
   <si>
-    <t>このDICOM画像検査リソースが存在する位置。【詳細参照】</t>
+    <t>このDICOM画像検査リソースが存在する位置【詳細参照】</t>
   </si>
   <si>
     <t>このDICOM画像検査リソースが存在する位置。</t>
@@ -769,6 +775,9 @@
 </t>
   </si>
   <si>
+    <t>このDICOM画像検査に含まれるシリーズ数</t>
+  </si>
+  <si>
     <t>このDICOM画像検査に含まれるシリーズ数。</t>
   </si>
   <si>
@@ -785,6 +794,9 @@
 </t>
   </si>
   <si>
+    <t>このDICOM画像検査に含まれるイメージ（インスタンス）の数</t>
+  </si>
+  <si>
     <t>このDICOM画像検査に含まれるイメージ（インスタンス）の数。</t>
   </si>
   <si>
@@ -801,7 +813,7 @@
 </t>
   </si>
   <si>
-    <t>実施された処置に関する情報。【詳細参照】</t>
+    <t>実施された処置に関する情報【詳細参照】</t>
   </si>
   <si>
     <t>実施された処置に関する情報。</t>
@@ -830,7 +842,7 @@
 </t>
   </si>
   <si>
-    <t>実施された処置を表すコード。【詳細参照】</t>
+    <t>実施された処置を表すコード【詳細参照】</t>
   </si>
   <si>
     <t>実施された処置を表すコード。</t>
@@ -852,7 +864,7 @@
 </t>
   </si>
   <si>
-    <t>DICOM画像検査が実施された場所。【詳細参照】</t>
+    <t>DICOM画像検査が実施された場所【詳細参照】</t>
   </si>
   <si>
     <t>DICOM画像検査が実施された場所。</t>
@@ -882,7 +894,7 @@
     <t>ImagingStudy.reasonCode</t>
   </si>
   <si>
-    <t>DICOM画像検査が依頼された理由を表す1つ以上のコード。【詳細参照】</t>
+    <t>DICOM画像検査が依頼された理由を表す1つ以上のコード【詳細参照】</t>
   </si>
   <si>
     <t>DICOM画像検査が依頼された理由を表す1つ以上のコード。</t>
@@ -916,7 +928,7 @@
 </t>
   </si>
   <si>
-    <t>DICOM画像検査の実施理由に関する情報。【詳細参照】</t>
+    <t>DICOM画像検査の実施理由に関する情報【詳細参照】</t>
   </si>
   <si>
     <t>DICOM画像検査の実施理由に関する情報。</t>
@@ -941,6 +953,9 @@
 </t>
   </si>
   <si>
+    <t>description要素に関するコメント</t>
+  </si>
+  <si>
     <t>description要素に関するコメント。</t>
   </si>
   <si>
@@ -961,7 +976,7 @@
 </t>
   </si>
   <si>
-    <t>DICOM画像検査に関する記述。【詳細参照】</t>
+    <t>DICOM画像検査に関する記述【詳細参照】</t>
   </si>
   <si>
     <t>DICOM画像検査に関する記述。</t>
@@ -983,6 +998,9 @@
 </t>
   </si>
   <si>
+    <t>DICOM画像検査に含まれるシリーズ（大まかな画像のグループ）</t>
+  </si>
+  <si>
     <t>DICOM画像検査に含まれるシリーズ（大まかな画像のグループ）。</t>
   </si>
   <si>
@@ -1037,7 +1055,7 @@
 </t>
   </si>
   <si>
-    <t>シリーズを一意に識別するためのUID。【詳細参照】</t>
+    <t>シリーズを一意に識別するためのUID【詳細参照】</t>
   </si>
   <si>
     <t>シリーズを一意に識別するためのUID。</t>
@@ -1065,6 +1083,9 @@
 </t>
   </si>
   <si>
+    <t>Series Instance UIDとは別に、ユーザー（または装置）が自由に決められるシリーズ番号</t>
+  </si>
+  <si>
     <t>Series Instance UIDとは別に、ユーザー（または装置）が自由に決められるシリーズ番号。</t>
   </si>
   <si>
@@ -1084,7 +1105,7 @@
 </t>
   </si>
   <si>
-    <t>このシリーズが取得された撮影装置（モダリティ）。【詳細参照】</t>
+    <t>このシリーズが取得された撮影装置（モダリティ）【詳細参照】</t>
   </si>
   <si>
     <t>このシリーズが取得された撮影装置（モダリティ）。</t>
@@ -1103,6 +1124,9 @@
 </t>
   </si>
   <si>
+    <t>このシリーズに関する記述</t>
+  </si>
+  <si>
     <t>このシリーズに関する記述。</t>
   </si>
   <si>
@@ -1119,6 +1143,9 @@
 </t>
   </si>
   <si>
+    <t>このシリーズに含まれる画像枚数</t>
+  </si>
+  <si>
     <t>このシリーズに含まれる画像枚数。</t>
   </si>
   <si>
@@ -1126,6 +1153,9 @@
   </si>
   <si>
     <t>ImagingStudy.series.endpoint</t>
+  </si>
+  <si>
+    <t>このシリーズのリソースが存在する位置</t>
   </si>
   <si>
     <t>このシリーズのリソースが存在する位置。</t>
@@ -1144,7 +1174,7 @@
 </t>
   </si>
   <si>
-    <t>このシリーズの対象となる解剖学的部位。【詳細参照】</t>
+    <t>このシリーズの対象となる解剖学的部位【詳細参照】</t>
   </si>
   <si>
     <t>このシリーズの対象となる解剖学的部位。</t>
@@ -1165,7 +1195,7 @@
     <t>ImagingStudy.series.laterality</t>
   </si>
   <si>
-    <t>解剖学的部位の左右。【詳細参照】</t>
+    <t>解剖学的部位の左右【詳細参照】</t>
   </si>
   <si>
     <t>解剖学的部位の左右。</t>
@@ -1187,7 +1217,7 @@
 </t>
   </si>
   <si>
-    <t>このシリーズの検体に関する情報。【詳細参照】</t>
+    <t>このシリーズの検体に関する情報【詳細参照】</t>
   </si>
   <si>
     <t>このシリーズの検体に関する情報。</t>
@@ -1202,7 +1232,7 @@
     <t>ImagingStudy.series.started</t>
   </si>
   <si>
-    <t>このシリーズの開始日時。【詳細参照】</t>
+    <t>このシリーズの開始日時【詳細参照】</t>
   </si>
   <si>
     <t>このシリーズの開始日時。</t>
@@ -1221,7 +1251,7 @@
 OperatorName</t>
   </si>
   <si>
-    <t>このシリーズの実施医。【詳細参照】</t>
+    <t>このシリーズの実施医【詳細参照】</t>
   </si>
   <si>
     <t>このシリーズの実施医。</t>
@@ -1248,7 +1278,7 @@
     <t>ImagingStudy.series.performer.function</t>
   </si>
   <si>
-    <t>このシリーズの実施医の役割。【詳細参照】</t>
+    <t>このシリーズの実施医の役割【詳細参照】</t>
   </si>
   <si>
     <t>このシリーズの実施医の役割。</t>
@@ -1270,7 +1300,7 @@
 </t>
   </si>
   <si>
-    <t>このシリーズの撮影者、もしくは組織。【詳細参照】</t>
+    <t>このシリーズの撮影者、もしくは組織【詳細参照】</t>
   </si>
   <si>
     <t>このシリーズの撮影者、もしくは組織。</t>
@@ -1286,6 +1316,9 @@
   </si>
   <si>
     <t>ImagingStudy.series.instance</t>
+  </si>
+  <si>
+    <t>シリーズに含まれるインスタンス（画像）単位の情報</t>
   </si>
   <si>
     <t>シリーズに含まれるインスタンス（画像）単位の情報。</t>
@@ -1310,7 +1343,7 @@
 </t>
   </si>
   <si>
-    <t>インスタンス（画像）のユニークID。【詳細参照】</t>
+    <t>インスタンス（画像）のユニークID【詳細参照】</t>
   </si>
   <si>
     <t>インスタンス（画像）のユニークID。</t>
@@ -1335,7 +1368,7 @@
 </t>
   </si>
   <si>
-    <t>SOPクラスUID。【詳細参照】</t>
+    <t>SOPクラスUID【詳細参照】</t>
   </si>
   <si>
     <t>SOPクラスUID。</t>
@@ -1365,7 +1398,7 @@
 </t>
   </si>
   <si>
-    <t>SOP Instance UIDとは別に、ユーザー（または装置）が自由に決められるインスタンス（画像）ごとの番号。【詳細参照】</t>
+    <t>SOP Instance UIDとは別に、ユーザー（または装置）が自由に決められるインスタンス（画像）ごとの番号【詳細参照】</t>
   </si>
   <si>
     <t>SOP Instance UIDとは別に、ユーザー（または装置）が自由に決められるインスタンス（画像）ごとの番号。</t>
@@ -1383,7 +1416,7 @@
     <t>ImagingStudy.series.instance.title</t>
   </si>
   <si>
-    <t>画像に関する説明。【詳細参照】</t>
+    <t>画像に関する説明【詳細参照】</t>
   </si>
   <si>
     <t>画像に関する説明。</t>
@@ -3097,10 +3130,10 @@
         <v>158</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3126,13 +3159,13 @@
         <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>79</v>
@@ -3165,31 +3198,31 @@
         <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3208,16 +3241,16 @@
         <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3243,13 +3276,13 @@
         <v>79</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>79</v>
@@ -3267,7 +3300,7 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3285,13 +3318,13 @@
         <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>79</v>
@@ -3299,10 +3332,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3325,16 +3358,16 @@
         <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3384,7 +3417,7 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>89</v>
@@ -3399,16 +3432,16 @@
         <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>79</v>
@@ -3416,10 +3449,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3442,16 +3475,16 @@
         <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3501,7 +3534,7 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3516,16 +3549,16 @@
         <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>79</v>
@@ -3533,14 +3566,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3559,13 +3592,13 @@
         <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3580,7 +3613,7 @@
         <v>79</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>79</v>
@@ -3616,7 +3649,7 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -3631,16 +3664,16 @@
         <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>79</v>
@@ -3648,10 +3681,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3674,19 +3707,19 @@
         <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>79</v>
@@ -3735,7 +3768,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -3750,16 +3783,16 @@
         <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>79</v>
@@ -3767,14 +3800,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3793,16 +3826,16 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3852,7 +3885,7 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -3870,13 +3903,13 @@
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>79</v>
@@ -3884,14 +3917,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3910,16 +3943,16 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3969,7 +4002,7 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -3987,13 +4020,13 @@
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>79</v>
@@ -4001,10 +4034,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4027,19 +4060,19 @@
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -4088,7 +4121,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4106,7 +4139,7 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
@@ -4120,14 +4153,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4146,13 +4179,13 @@
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4203,7 +4236,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4221,10 +4254,10 @@
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4235,14 +4268,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4261,13 +4294,13 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4318,7 +4351,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4336,10 +4369,10 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4350,10 +4383,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4376,16 +4409,16 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4435,7 +4468,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4450,13 +4483,13 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -4467,14 +4500,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4493,16 +4526,16 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4528,11 +4561,11 @@
         <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>79</v>
@@ -4550,7 +4583,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4565,13 +4598,13 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -4582,10 +4615,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4608,19 +4641,19 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -4669,7 +4702,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4684,27 +4717,27 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4727,16 +4760,16 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4762,11 +4795,11 @@
         <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>79</v>
@@ -4784,7 +4817,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4799,16 +4832,16 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
@@ -4816,10 +4849,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4842,16 +4875,16 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4901,7 +4934,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -4916,27 +4949,27 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4959,13 +4992,13 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5016,7 +5049,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5031,10 +5064,10 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -5048,14 +5081,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5074,16 +5107,16 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5133,7 +5166,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5151,10 +5184,10 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5165,10 +5198,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5191,13 +5224,13 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5248,7 +5281,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5266,7 +5299,7 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5280,10 +5313,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5306,13 +5339,13 @@
         <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5363,7 +5396,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5381,7 +5414,7 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5395,10 +5428,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5427,7 +5460,7 @@
         <v>136</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="N32" t="s" s="2">
         <v>138</v>
@@ -5480,7 +5513,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5498,7 +5531,7 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5512,14 +5545,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5541,10 +5574,10 @@
         <v>135</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>138</v>
@@ -5599,7 +5632,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5631,14 +5664,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5660,16 +5693,16 @@
         <v>91</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -5682,43 +5715,43 @@
         <v>79</v>
       </c>
       <c r="T34" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>89</v>
@@ -5736,10 +5769,10 @@
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -5750,14 +5783,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5776,13 +5809,13 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5797,7 +5830,7 @@
         <v>79</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>79</v>
@@ -5833,7 +5866,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -5851,10 +5884,10 @@
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -5865,14 +5898,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5891,16 +5924,16 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5926,13 +5959,13 @@
         <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>79</v>
@@ -5950,7 +5983,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>89</v>
@@ -5968,10 +6001,10 @@
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -5982,14 +6015,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6008,13 +6041,13 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6029,7 +6062,7 @@
         <v>79</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>79</v>
@@ -6065,7 +6098,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6083,10 +6116,10 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6097,14 +6130,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6123,13 +6156,13 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6180,7 +6213,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6198,10 +6231,10 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6212,10 +6245,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6238,19 +6271,19 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -6299,7 +6332,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6317,7 +6350,7 @@
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6331,14 +6364,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6357,16 +6390,16 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6392,13 +6425,13 @@
         <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>79</v>
@@ -6416,7 +6449,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6434,10 +6467,10 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6448,10 +6481,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6474,16 +6507,16 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6509,13 +6542,13 @@
         <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>79</v>
@@ -6533,7 +6566,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6551,10 +6584,10 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -6565,10 +6598,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6591,16 +6624,16 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6650,7 +6683,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6668,10 +6701,10 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -6682,10 +6715,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6708,16 +6741,16 @@
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6767,7 +6800,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6785,10 +6818,10 @@
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -6799,14 +6832,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6825,19 +6858,19 @@
         <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>79</v>
@@ -6886,7 +6919,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -6901,13 +6934,13 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -6918,10 +6951,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6944,13 +6977,13 @@
         <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7001,7 +7034,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7019,7 +7052,7 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7033,10 +7066,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7065,7 +7098,7 @@
         <v>136</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>138</v>
@@ -7118,7 +7151,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7136,7 +7169,7 @@
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7150,14 +7183,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7179,10 +7212,10 @@
         <v>135</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>138</v>
@@ -7237,7 +7270,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7269,10 +7302,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7295,19 +7328,19 @@
         <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>79</v>
@@ -7332,13 +7365,13 @@
         <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>79</v>
@@ -7356,7 +7389,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7374,7 +7407,7 @@
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7388,10 +7421,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7414,16 +7447,16 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7473,7 +7506,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>89</v>
@@ -7491,24 +7524,24 @@
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7531,13 +7564,13 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7588,7 +7621,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7606,7 +7639,7 @@
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -7620,10 +7653,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7646,13 +7679,13 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7703,7 +7736,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7721,7 +7754,7 @@
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -7735,10 +7768,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7767,7 +7800,7 @@
         <v>136</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>138</v>
@@ -7820,7 +7853,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -7838,7 +7871,7 @@
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -7852,14 +7885,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7881,10 +7914,10 @@
         <v>135</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>138</v>
@@ -7939,7 +7972,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -7971,14 +8004,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8000,16 +8033,16 @@
         <v>91</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -8022,7 +8055,7 @@
         <v>79</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>79</v>
@@ -8058,7 +8091,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>89</v>
@@ -8076,10 +8109,10 @@
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8090,14 +8123,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8116,16 +8149,16 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8151,13 +8184,13 @@
         <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>79</v>
@@ -8175,7 +8208,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>89</v>
@@ -8193,10 +8226,10 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8207,14 +8240,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8233,16 +8266,16 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8292,7 +8325,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8310,10 +8343,10 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8324,10 +8357,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8350,16 +8383,16 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8409,7 +8442,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8427,10 +8460,10 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
